--- a/input-files/TestData.xlsx
+++ b/input-files/TestData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\git\repository\SeleniumTraining\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\git\repository\SeleniumTraining\input-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{805815DF-4082-42EF-9008-67BFCDA3D900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336B6B0F-627E-4EF8-ADED-587DBAC5BBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6084" yWindow="1584" windowWidth="17280" windowHeight="8880" xr2:uid="{8629D958-925B-4D14-895A-B49A3E7503E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8629D958-925B-4D14-895A-B49A3E7503E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestDataSheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestDataSheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestDataSheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -447,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C79C50B-42CB-4A4B-BE63-90DE1D4B356E}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,4 +531,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFB73AF-BCCE-4A8B-A367-8B3187A26C7F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52663962-5B69-467C-8084-8EE32D70779C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input-files/TestData.xlsx
+++ b/input-files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\git\repository\SeleniumTraining\input-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336B6B0F-627E-4EF8-ADED-587DBAC5BBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260AB6D-0795-4EC8-BBC7-2258F5740A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8629D958-925B-4D14-895A-B49A3E7503E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8629D958-925B-4D14-895A-B49A3E7503E1}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataSheet1" sheetId="1" r:id="rId1"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C79C50B-42CB-4A4B-BE63-90DE1D4B356E}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52663962-5B69-467C-8084-8EE32D70779C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/input-files/TestData.xlsx
+++ b/input-files/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\git\repository\SeleniumTraining\input-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260AB6D-0795-4EC8-BBC7-2258F5740A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A573BB0B-533E-4308-A5F2-485BAFD34822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8629D958-925B-4D14-895A-B49A3E7503E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Testcases</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>zcccfw</t>
-  </si>
-  <si>
-    <t>ssf</t>
   </si>
   <si>
     <t>ff</t>
@@ -450,7 +447,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,11 +504,11 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -519,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
